--- a/Product_&_Sprint_1Backlog_Team(2).xlsx
+++ b/Product_&_Sprint_1Backlog_Team(2).xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="118">
   <si>
     <t>Week 1</t>
   </si>
@@ -43,10 +43,10 @@
     <t>SCRUM Team</t>
   </si>
   <si>
-    <t>Kaushal</t>
+    <t>Venkat</t>
   </si>
   <si>
-    <t>Arpit</t>
+    <t>Rohan</t>
   </si>
   <si>
     <t>Arpit Kumar</t>
@@ -55,13 +55,22 @@
     <t>Kaushal Kumar</t>
   </si>
   <si>
-    <t>Rohan Chavan</t>
-  </si>
-  <si>
     <t>Sharayu Milind Nalawade</t>
   </si>
   <si>
-    <t>Venkat Chakkani</t>
+    <t>Week 2</t>
+  </si>
+  <si>
+    <t>Arpit</t>
+  </si>
+  <si>
+    <t>Kaushal</t>
+  </si>
+  <si>
+    <t>Week 3</t>
+  </si>
+  <si>
+    <t>Sharayu</t>
   </si>
   <si>
     <t>USER STORY ID</t>
@@ -325,25 +334,13 @@
     <t xml:space="preserve">Task 1: Create the user registration </t>
   </si>
   <si>
-    <t>Rohan</t>
-  </si>
-  <si>
-    <t>In progress</t>
+    <t>completed</t>
   </si>
   <si>
     <t>Task 2: Create the high level doc design</t>
   </si>
   <si>
-    <t>Sharayu</t>
-  </si>
-  <si>
-    <t>completed</t>
-  </si>
-  <si>
     <t xml:space="preserve">Task 3: Create the DB design </t>
-  </si>
-  <si>
-    <t>Venkat</t>
   </si>
   <si>
     <t>Task 4: Create the user login</t>
@@ -352,19 +349,40 @@
     <t>Task 5: Create the user functionality</t>
   </si>
   <si>
-    <t xml:space="preserve">Task 6: </t>
+    <t>As a user ,I want to use all functionality of the product</t>
   </si>
   <si>
-    <t xml:space="preserve">Task 7: </t>
+    <t>Task 6: Create user management</t>
   </si>
   <si>
-    <t xml:space="preserve">Task 8: </t>
+    <t>Task 7: Create Transaction Module</t>
   </si>
   <si>
-    <t xml:space="preserve">Task 9: </t>
+    <t>Task 8: Create Reporting Module</t>
   </si>
   <si>
-    <t xml:space="preserve">Task 10: </t>
+    <t>Task 9: Create Notification Module</t>
+  </si>
+  <si>
+    <t>Task 10: Create Admin mangement</t>
+  </si>
+  <si>
+    <t>As a user, I want to use UI of the product</t>
+  </si>
+  <si>
+    <t>Task 6: Create Credit ,debit,fund Transfer</t>
+  </si>
+  <si>
+    <t>Task 7: Create User Dashboard</t>
+  </si>
+  <si>
+    <t>Task 8: Create Admin Dashboard</t>
+  </si>
+  <si>
+    <t>Task 9: Create Landing page and reporting user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task 10: Create SignUp and Login </t>
   </si>
 </sst>
 </file>
@@ -1519,10 +1537,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B2:D999"/>
+  <dimension ref="B2:D997"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6666666666667" defaultRowHeight="15" customHeight="1" outlineLevelCol="3"/>
@@ -1576,31 +1594,95 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1" spans="2:4">
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="25" t="s">
+    <row r="7" ht="15.75" customHeight="1"/>
+    <row r="8" ht="15.75" customHeight="1"/>
+    <row r="9" ht="15.75" customHeight="1" spans="2:4">
+      <c r="B9" s="20" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" ht="15.75" customHeight="1" spans="2:4">
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="25" t="s">
+      <c r="C9" s="21"/>
+      <c r="D9" s="22"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1" spans="2:4">
+      <c r="B10" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" customHeight="1" spans="2:4">
+      <c r="B11" s="25" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" ht="15.75" customHeight="1"/>
-    <row r="10" ht="15.75" customHeight="1"/>
-    <row r="11" ht="15.75" customHeight="1"/>
-    <row r="12" ht="15.75" customHeight="1"/>
-    <row r="13" ht="15.75" customHeight="1"/>
+      <c r="C11" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" ht="15.75" customHeight="1" spans="2:4">
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" customHeight="1" spans="2:4">
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="25" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="14" ht="15.75" customHeight="1"/>
-    <row r="15" ht="15.75" customHeight="1"/>
-    <row r="16" ht="15.75" customHeight="1"/>
-    <row r="17" ht="15.75" customHeight="1"/>
-    <row r="18" ht="15.75" customHeight="1"/>
-    <row r="19" ht="15.75" customHeight="1"/>
+    <row r="15" ht="15.75" customHeight="1" spans="2:4">
+      <c r="B15" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="21"/>
+      <c r="D15" s="22"/>
+    </row>
+    <row r="16" ht="15.75" customHeight="1" spans="2:4">
+      <c r="B16" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75" customHeight="1" spans="2:4">
+      <c r="B17" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" ht="15.75" customHeight="1" spans="2:4">
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" ht="15.75" customHeight="1" spans="2:4">
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
@@ -2579,11 +2661,11 @@
     <row r="995" ht="15.75" customHeight="1"/>
     <row r="996" ht="15.75" customHeight="1"/>
     <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B15:D15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="1" orientation="landscape"/>
@@ -2598,8 +2680,8 @@
   </sheetPr>
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B9"/>
+    <sheetView topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6666666666667" defaultRowHeight="15" customHeight="1" outlineLevelCol="5"/>
@@ -2613,42 +2695,42 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:6">
       <c r="A1" s="17" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:6">
       <c r="A2" s="18" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:6">
@@ -2709,22 +2791,22 @@
     </row>
     <row r="10" ht="15.75" customHeight="1" spans="1:6">
       <c r="A10" s="18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C10" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="18" t="s">
         <v>25</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1" spans="1:6">
@@ -2785,22 +2867,22 @@
     </row>
     <row r="18" ht="15.75" customHeight="1" spans="1:6">
       <c r="A18" s="18" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1" spans="1:6">
@@ -2861,22 +2943,22 @@
     </row>
     <row r="26" ht="15.75" customHeight="1" spans="1:6">
       <c r="A26" s="18" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1" spans="1:6">
@@ -2937,22 +3019,22 @@
     </row>
     <row r="34" ht="15.75" customHeight="1" spans="1:6">
       <c r="A34" s="18" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F34" s="18" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1" spans="1:6">
@@ -3013,22 +3095,22 @@
     </row>
     <row r="42" ht="15.75" customHeight="1" spans="1:6">
       <c r="A42" s="18" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E42" s="18" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F42" s="18" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1" spans="1:6">
@@ -3089,22 +3171,22 @@
     </row>
     <row r="50" ht="15.75" customHeight="1" spans="1:6">
       <c r="A50" s="18" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E50" s="18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F50" s="18" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1" spans="1:6">
@@ -3165,22 +3247,22 @@
     </row>
     <row r="58" ht="15.75" customHeight="1" spans="1:6">
       <c r="A58" s="18" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B58" s="19" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D58" s="18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E58" s="18" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F58" s="18" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1" spans="1:6">
@@ -3241,22 +3323,22 @@
     </row>
     <row r="66" ht="10" customHeight="1" spans="1:6">
       <c r="A66" s="18" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B66" s="19" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D66" s="18" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E66" s="18" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F66" s="18" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" ht="10" customHeight="1" spans="1:6">
@@ -3317,22 +3399,22 @@
     </row>
     <row r="74" ht="10" customHeight="1" spans="1:6">
       <c r="A74" s="18" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B74" s="19" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C74" s="19" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D74" s="18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E74" s="18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F74" s="18" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1" spans="1:6">
@@ -3393,22 +3475,22 @@
     </row>
     <row r="82" ht="15.75" customHeight="1" spans="1:6">
       <c r="A82" s="18" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C82" s="19" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D82" s="18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E82" s="18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F82" s="18" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" ht="15.75" customHeight="1" spans="1:6">
@@ -3469,22 +3551,22 @@
     </row>
     <row r="90" ht="15.75" customHeight="1" spans="1:6">
       <c r="A90" s="18" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B90" s="19" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C90" s="19" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D90" s="18" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E90" s="18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F90" s="18" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="91" ht="15.75" customHeight="1" spans="1:6">
@@ -3545,22 +3627,22 @@
     </row>
     <row r="98" ht="15.75" customHeight="1" spans="1:6">
       <c r="A98" s="18" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B98" s="19" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C98" s="19" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D98" s="18" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E98" s="18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F98" s="18" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="99" ht="15.75" customHeight="1" spans="1:6">
@@ -3621,22 +3703,22 @@
     </row>
     <row r="106" ht="15.75" customHeight="1" spans="1:6">
       <c r="A106" s="18" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B106" s="19" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C106" s="19" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D106" s="18" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E106" s="18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F106" s="18" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="107" ht="15.75" customHeight="1" spans="1:6">
@@ -3697,22 +3779,22 @@
     </row>
     <row r="114" ht="15.75" customHeight="1" spans="1:6">
       <c r="A114" s="18" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B114" s="19" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C114" s="19" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D114" s="18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E114" s="18" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F114" s="18" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="115" ht="15.75" customHeight="1" spans="1:6">
@@ -3773,22 +3855,22 @@
     </row>
     <row r="122" ht="15.75" customHeight="1" spans="1:6">
       <c r="A122" s="18" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B122" s="19" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C122" s="19" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D122" s="18" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E122" s="18" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F122" s="18" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="123" ht="15.75" customHeight="1" spans="1:6">
@@ -3849,22 +3931,22 @@
     </row>
     <row r="130" ht="15.75" customHeight="1" spans="1:6">
       <c r="A130" s="18" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B130" s="19" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C130" s="19" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D130" s="18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E130" s="18" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F130" s="18" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="131" ht="15.75" customHeight="1" spans="1:6">
@@ -3925,22 +4007,22 @@
     </row>
     <row r="138" ht="15.75" customHeight="1" spans="1:6">
       <c r="A138" s="18" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B138" s="19" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C138" s="19" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D138" s="18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E138" s="18" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F138" s="18" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="139" ht="15.75" customHeight="1" spans="1:6">
@@ -4001,22 +4083,22 @@
     </row>
     <row r="146" ht="15.75" customHeight="1" spans="1:6">
       <c r="A146" s="18" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B146" s="19" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C146" s="19" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D146" s="18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E146" s="18" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F146" s="18" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="147" ht="15.75" customHeight="1" spans="1:6">
@@ -4077,22 +4159,22 @@
     </row>
     <row r="154" ht="15.75" customHeight="1" spans="1:6">
       <c r="A154" s="18" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B154" s="19" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C154" s="19" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D154" s="18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E154" s="18" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F154" s="18" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="155" ht="15.75" customHeight="1" spans="1:6">
@@ -4153,22 +4235,22 @@
     </row>
     <row r="162" ht="15.75" customHeight="1" spans="1:6">
       <c r="A162" s="18" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B162" s="19" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C162" s="19" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D162" s="18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E162" s="18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F162" s="18" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="163" ht="15.75" customHeight="1" spans="1:6">
@@ -4229,22 +4311,22 @@
     </row>
     <row r="170" ht="15.75" customHeight="1" spans="1:6">
       <c r="A170" s="18" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B170" s="19" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C170" s="19" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D170" s="18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E170" s="18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F170" s="18" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="171" ht="15.75" customHeight="1" spans="1:6">
@@ -4305,22 +4387,22 @@
     </row>
     <row r="178" ht="15.75" customHeight="1" spans="1:6">
       <c r="A178" s="18" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B178" s="19" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C178" s="19" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D178" s="18" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E178" s="18" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F178" s="18" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="179" ht="15.75" customHeight="1" spans="1:6">
@@ -4381,22 +4463,22 @@
     </row>
     <row r="186" ht="15.75" customHeight="1" spans="1:6">
       <c r="A186" s="18" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B186" s="19" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C186" s="19" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D186" s="18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E186" s="18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F186" s="18" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="187" ht="15.75" customHeight="1" spans="1:6">
@@ -5423,7 +5505,7 @@
   <dimension ref="A1:Y988"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6666666666667" defaultRowHeight="15" customHeight="1"/>
@@ -5465,22 +5547,22 @@
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:25">
       <c r="A2" s="4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -5504,22 +5586,22 @@
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:25">
       <c r="A3" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D3" s="9">
         <v>5</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>98</v>
+        <v>5</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -5545,16 +5627,16 @@
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="8" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D4" s="9">
         <v>4</v>
       </c>
       <c r="E4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>101</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>102</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -5586,10 +5668,10 @@
         <v>3</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -5615,16 +5697,16 @@
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D6" s="9">
         <v>5</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -5650,16 +5732,16 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D7" s="9">
         <v>5</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -5710,15 +5792,23 @@
     </row>
     <row r="9" ht="15.75" customHeight="1" spans="1:25">
       <c r="A9" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="14"/>
+        <v>26</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>106</v>
+      </c>
       <c r="C9" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
+      <c r="D9" s="9">
+        <v>7</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -5745,9 +5835,15 @@
       <c r="C10" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
+      <c r="D10" s="9">
+        <v>7</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -5774,9 +5870,15 @@
       <c r="C11" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
+      <c r="D11" s="9">
+        <v>7</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -5803,9 +5905,15 @@
       <c r="C12" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
+      <c r="D12" s="9">
+        <v>7</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -5832,9 +5940,15 @@
       <c r="C13" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
+      <c r="D13" s="9">
+        <v>7</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -5883,12 +5997,24 @@
       <c r="Y14" s="2"/>
     </row>
     <row r="15" ht="15.75" customHeight="1" spans="1:25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="A15" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D15" s="9">
+        <v>7</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -5910,12 +6036,20 @@
       <c r="Y15" s="2"/>
     </row>
     <row r="16" ht="15.75" customHeight="1" spans="1:25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16" s="9">
+        <v>7</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -5937,12 +6071,20 @@
       <c r="Y16" s="2"/>
     </row>
     <row r="17" ht="15.75" customHeight="1" spans="1:25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D17" s="9">
+        <v>7</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -5964,12 +6106,20 @@
       <c r="Y17" s="2"/>
     </row>
     <row r="18" ht="15.75" customHeight="1" spans="1:25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D18" s="9">
+        <v>7</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -5991,12 +6141,20 @@
       <c r="Y18" s="2"/>
     </row>
     <row r="19" ht="15.75" customHeight="1" spans="1:25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D19" s="9">
+        <v>7</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -6018,12 +6176,12 @@
       <c r="Y19" s="2"/>
     </row>
     <row r="20" ht="15.75" customHeight="1" spans="1:25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -11901,11 +12059,13 @@
     <row r="987" ht="15.75" customHeight="1"/>
     <row r="988" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="A9:A14"/>
+    <mergeCell ref="A15:A20"/>
     <mergeCell ref="B3:B8"/>
     <mergeCell ref="B9:B14"/>
+    <mergeCell ref="B15:B20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="1" orientation="landscape"/>
